--- a/madrich/data/eapteka.xlsx
+++ b/madrich/data/eapteka.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Заказы" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10189" uniqueCount="3487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10189" uniqueCount="3486">
   <si>
     <t>Широта</t>
   </si>
@@ -10476,9 +10476,6 @@
   </si>
   <si>
     <t>Худин Андрей Александрович</t>
-  </si>
-  <si>
-    <t>(2020-10-01 00:00:00 - 2020-10-01 23:59:59)</t>
   </si>
   <si>
     <t>Планерная 12к1</t>
@@ -90129,11 +90126,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -91156,9 +91158,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -91311,7 +91321,7 @@
         <v>37.605336999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>3482</v>
+        <v>3441</v>
       </c>
       <c r="F8">
         <v>600</v>
@@ -91342,7 +91352,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="C10">
         <v>55.862141000000001</v>
@@ -91362,7 +91372,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="C11">
         <v>55.803483999999997</v>
@@ -91415,10 +91425,10 @@
         <v>3429</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3485</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3486</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">

--- a/madrich/data/eapteka.xlsx
+++ b/madrich/data/eapteka.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Заказы" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10189" uniqueCount="3488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10189" uniqueCount="3489">
   <si>
     <t>Широта</t>
   </si>
@@ -10346,9 +10346,6 @@
     <t>foot</t>
   </si>
   <si>
-    <t>[15000, 4000000]</t>
-  </si>
-  <si>
     <t>['1905 года 7', 'Бауманская 62-66', 'Волжский б-р  44', 'Дмитрия Ульянова 5', 'Дмитровское шоссе 87', 'Маломосковская 22/1', 'Марьина роща склад', 'Мастеркова 3', 'Планерная 12к1', 'Строгинский б-р 23', 'Уральская 1']</t>
   </si>
   <si>
@@ -10494,6 +10491,12 @@
   </si>
   <si>
     <t>bicycle</t>
+  </si>
+  <si>
+    <t>[15000, 40000]</t>
+  </si>
+  <si>
+    <t>[200000, 400000]</t>
   </si>
 </sst>
 </file>
@@ -10858,7 +10861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2451" workbookViewId="0">
+    <sheetView topLeftCell="A2028" workbookViewId="0">
       <selection activeCell="M2468" sqref="M2468"/>
     </sheetView>
   </sheetViews>
@@ -90134,8 +90137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -90182,13 +90185,13 @@
         <v>3436</v>
       </c>
       <c r="D2" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E2" t="s">
         <v>3487</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3438</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3439</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -90205,19 +90208,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3439</v>
+      </c>
+      <c r="C3" t="s">
         <v>3440</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3441</v>
       </c>
-      <c r="D3" t="s">
-        <v>3442</v>
-      </c>
       <c r="E3" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F3" t="s">
         <v>3438</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3439</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -90234,19 +90237,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>3442</v>
+      </c>
+      <c r="C4" t="s">
         <v>3443</v>
       </c>
-      <c r="C4" t="s">
-        <v>3444</v>
-      </c>
       <c r="D4" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="E4" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F4" t="s">
         <v>3438</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3439</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -90263,19 +90266,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C5" t="s">
         <v>3445</v>
       </c>
-      <c r="C5" t="s">
-        <v>3446</v>
-      </c>
       <c r="D5" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E5" t="s">
         <v>3487</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>3438</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3439</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -90292,19 +90295,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E6" t="s">
         <v>3487</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>3438</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3439</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -90321,19 +90324,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C7" t="s">
         <v>3447</v>
       </c>
-      <c r="C7" t="s">
-        <v>3448</v>
-      </c>
       <c r="D7" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="E7" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F7" t="s">
         <v>3438</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3439</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -90350,19 +90353,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="C8" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="D8" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E8" t="s">
         <v>3487</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>3438</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3439</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -90379,19 +90382,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>3449</v>
+      </c>
+      <c r="C9" t="s">
         <v>3450</v>
       </c>
-      <c r="C9" t="s">
-        <v>3451</v>
-      </c>
       <c r="D9" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E9" t="s">
         <v>3487</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>3438</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3439</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -90408,19 +90411,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="C10" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="D10" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="E10" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F10" t="s">
         <v>3438</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3439</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -90437,19 +90440,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E11" t="s">
         <v>3487</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>3438</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3439</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -90466,19 +90469,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="C12" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="D12" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E12" t="s">
         <v>3487</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>3438</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3439</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -90495,19 +90498,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="C13" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="D13" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="E13" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F13" t="s">
         <v>3438</v>
-      </c>
-      <c r="F13" t="s">
-        <v>3439</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -90524,19 +90527,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="C14" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="D14" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E14" t="s">
         <v>3487</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>3438</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3439</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -90553,19 +90556,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C15" t="s">
         <v>3457</v>
       </c>
-      <c r="C15" t="s">
-        <v>3458</v>
-      </c>
       <c r="D15" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="E15" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F15" t="s">
         <v>3438</v>
-      </c>
-      <c r="F15" t="s">
-        <v>3439</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -90582,19 +90585,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C16" t="s">
         <v>3459</v>
       </c>
-      <c r="C16" t="s">
-        <v>3460</v>
-      </c>
       <c r="D16" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="E16" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F16" t="s">
         <v>3438</v>
-      </c>
-      <c r="F16" t="s">
-        <v>3439</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -90611,19 +90614,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="C17" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="D17" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="E17" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F17" t="s">
         <v>3438</v>
-      </c>
-      <c r="F17" t="s">
-        <v>3439</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -90640,19 +90643,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="C18" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D18" t="s">
         <v>3441</v>
       </c>
-      <c r="D18" t="s">
-        <v>3442</v>
-      </c>
       <c r="E18" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F18" t="s">
         <v>3438</v>
-      </c>
-      <c r="F18" t="s">
-        <v>3439</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -90669,19 +90672,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="C19" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="D19" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E19" t="s">
         <v>3487</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>3438</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3439</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -90698,19 +90701,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="C20" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="D20" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="E20" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F20" t="s">
         <v>3438</v>
-      </c>
-      <c r="F20" t="s">
-        <v>3439</v>
       </c>
       <c r="G20">
         <v>10</v>
@@ -90727,19 +90730,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="C21" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="D21" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E21" t="s">
         <v>3487</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>3438</v>
-      </c>
-      <c r="F21" t="s">
-        <v>3439</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -90756,19 +90759,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="C22" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="D22" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E22" t="s">
         <v>3487</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>3438</v>
-      </c>
-      <c r="F22" t="s">
-        <v>3439</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -90785,19 +90788,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>3466</v>
+      </c>
+      <c r="C23" t="s">
         <v>3467</v>
       </c>
-      <c r="C23" t="s">
-        <v>3468</v>
-      </c>
       <c r="D23" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E23" t="s">
         <v>3487</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>3438</v>
-      </c>
-      <c r="F23" t="s">
-        <v>3439</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -90814,19 +90817,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="C24" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="D24" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E24" t="s">
         <v>3487</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>3438</v>
-      </c>
-      <c r="F24" t="s">
-        <v>3439</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -90843,19 +90846,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="C25" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D25" t="s">
         <v>3441</v>
       </c>
-      <c r="D25" t="s">
-        <v>3442</v>
-      </c>
       <c r="E25" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F25" t="s">
         <v>3438</v>
-      </c>
-      <c r="F25" t="s">
-        <v>3439</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -90872,19 +90875,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="C26" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="D26" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="E26" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F26" t="s">
         <v>3438</v>
-      </c>
-      <c r="F26" t="s">
-        <v>3439</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -90901,19 +90904,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="C27" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D27" t="s">
         <v>3441</v>
       </c>
-      <c r="D27" t="s">
-        <v>3442</v>
-      </c>
       <c r="E27" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F27" t="s">
         <v>3438</v>
-      </c>
-      <c r="F27" t="s">
-        <v>3439</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -90930,7 +90933,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="C28" t="s">
         <v>1652</v>
@@ -90939,10 +90942,10 @@
         <v>3437</v>
       </c>
       <c r="E28" t="s">
+        <v>3487</v>
+      </c>
+      <c r="F28" t="s">
         <v>3438</v>
-      </c>
-      <c r="F28" t="s">
-        <v>3439</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -90959,19 +90962,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>3472</v>
+      </c>
+      <c r="C29" t="s">
         <v>3473</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3474</v>
       </c>
       <c r="D29" t="s">
         <v>3437</v>
       </c>
       <c r="E29" t="s">
+        <v>3487</v>
+      </c>
+      <c r="F29" t="s">
         <v>3438</v>
-      </c>
-      <c r="F29" t="s">
-        <v>3439</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -90988,19 +90991,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C30" t="s">
         <v>3475</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3476</v>
       </c>
       <c r="D30" t="s">
         <v>3437</v>
       </c>
       <c r="E30" t="s">
+        <v>3487</v>
+      </c>
+      <c r="F30" t="s">
         <v>3438</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3439</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -91017,19 +91020,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C31" t="s">
         <v>3477</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3478</v>
       </c>
       <c r="D31" t="s">
         <v>3437</v>
       </c>
       <c r="E31" t="s">
+        <v>3487</v>
+      </c>
+      <c r="F31" t="s">
         <v>3438</v>
-      </c>
-      <c r="F31" t="s">
-        <v>3439</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -91046,7 +91049,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -91055,10 +91058,10 @@
         <v>3437</v>
       </c>
       <c r="E32" t="s">
+        <v>3487</v>
+      </c>
+      <c r="F32" t="s">
         <v>3438</v>
-      </c>
-      <c r="F32" t="s">
-        <v>3439</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -91075,19 +91078,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="C33" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="D33" t="s">
         <v>3437</v>
       </c>
       <c r="E33" t="s">
+        <v>3487</v>
+      </c>
+      <c r="F33" t="s">
         <v>3438</v>
-      </c>
-      <c r="F33" t="s">
-        <v>3439</v>
       </c>
       <c r="G33">
         <v>5</v>
@@ -91104,19 +91107,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="C34" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="D34" t="s">
         <v>3437</v>
       </c>
       <c r="E34" t="s">
+        <v>3487</v>
+      </c>
+      <c r="F34" t="s">
         <v>3438</v>
-      </c>
-      <c r="F34" t="s">
-        <v>3439</v>
       </c>
       <c r="G34">
         <v>5</v>
@@ -91133,19 +91136,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="C35" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D35" t="s">
         <v>3441</v>
       </c>
-      <c r="D35" t="s">
-        <v>3442</v>
-      </c>
       <c r="E35" t="s">
+        <v>3488</v>
+      </c>
+      <c r="F35" t="s">
         <v>3438</v>
-      </c>
-      <c r="F35" t="s">
-        <v>3439</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -91209,7 +91212,7 @@
         <v>37.558669999999999</v>
       </c>
       <c r="E2" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="F2">
         <v>600</v>
@@ -91229,7 +91232,7 @@
         <v>37.678837000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="F3">
         <v>600</v>
@@ -91249,7 +91252,7 @@
         <v>37.750604000000003</v>
       </c>
       <c r="E4" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="F4">
         <v>600</v>
@@ -91269,7 +91272,7 @@
         <v>37.561509000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="F5">
         <v>600</v>
@@ -91289,7 +91292,7 @@
         <v>37.545760999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="F6">
         <v>600</v>
@@ -91309,7 +91312,7 @@
         <v>37.652616000000002</v>
       </c>
       <c r="E7" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="F7">
         <v>600</v>
@@ -91329,7 +91332,7 @@
         <v>37.605336999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="F8">
         <v>600</v>
@@ -91349,7 +91352,7 @@
         <v>37.658633999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="F9">
         <v>600</v>
@@ -91360,7 +91363,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="C10">
         <v>55.862141000000001</v>
@@ -91369,7 +91372,7 @@
         <v>37.436633999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="F10">
         <v>600</v>
@@ -91380,7 +91383,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="C11">
         <v>55.803483999999997</v>
@@ -91389,7 +91392,7 @@
         <v>37.407437999999999</v>
       </c>
       <c r="E11" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="F11">
         <v>600</v>
@@ -91409,7 +91412,7 @@
         <v>37.797702999999998</v>
       </c>
       <c r="E12" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="F12">
         <v>600</v>
@@ -91435,10 +91438,10 @@
         <v>3429</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3484</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3485</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -91446,10 +91449,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C2" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -91457,10 +91460,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="C3" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -91468,10 +91471,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="C4" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -91479,10 +91482,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C5" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -91490,10 +91493,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C6" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -91501,10 +91504,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="C7" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -91512,10 +91515,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C8" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -91523,10 +91526,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C9" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -91534,10 +91537,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="C10" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -91545,10 +91548,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C11" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -91556,10 +91559,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C12" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -91567,10 +91570,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="C13" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -91578,10 +91581,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C14" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -91589,10 +91592,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="C15" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -91600,10 +91603,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="C16" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -91611,10 +91614,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="C17" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -91622,10 +91625,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="C18" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -91633,10 +91636,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C19" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -91644,10 +91647,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="C20" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -91655,10 +91658,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C21" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -91666,10 +91669,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C22" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -91677,10 +91680,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C23" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -91688,10 +91691,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C24" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -91699,10 +91702,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="C25" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -91710,10 +91713,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="C26" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -91721,10 +91724,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="C27" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -91809,10 +91812,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="C35" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
   </sheetData>

--- a/madrich/data/eapteka.xlsx
+++ b/madrich/data/eapteka.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Заказы" sheetId="1" r:id="rId1"/>
@@ -10552,11 +10552,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -90137,7 +90138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -91427,8 +91428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -91454,6 +91455,9 @@
       <c r="C2" t="s">
         <v>3486</v>
       </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -91465,6 +91469,9 @@
       <c r="C3" t="s">
         <v>3441</v>
       </c>
+      <c r="D3" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -91476,6 +91483,9 @@
       <c r="C4" t="s">
         <v>3441</v>
       </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -91487,6 +91497,9 @@
       <c r="C5" t="s">
         <v>3486</v>
       </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -91498,6 +91511,9 @@
       <c r="C6" t="s">
         <v>3486</v>
       </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -91509,6 +91525,9 @@
       <c r="C7" t="s">
         <v>3441</v>
       </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -91520,6 +91539,9 @@
       <c r="C8" t="s">
         <v>3486</v>
       </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -91531,6 +91553,9 @@
       <c r="C9" t="s">
         <v>3486</v>
       </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -91542,6 +91567,9 @@
       <c r="C10" t="s">
         <v>3441</v>
       </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -91553,6 +91581,9 @@
       <c r="C11" t="s">
         <v>3486</v>
       </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -91564,6 +91595,9 @@
       <c r="C12" t="s">
         <v>3486</v>
       </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -91575,6 +91609,9 @@
       <c r="C13" t="s">
         <v>3441</v>
       </c>
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -91585,6 +91622,9 @@
       </c>
       <c r="C14" t="s">
         <v>3486</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -91597,6 +91637,9 @@
       <c r="C15" t="s">
         <v>3441</v>
       </c>
+      <c r="D15" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -91608,8 +91651,11 @@
       <c r="C16" t="s">
         <v>3441</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -91619,8 +91665,11 @@
       <c r="C17" t="s">
         <v>3441</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -91630,8 +91679,11 @@
       <c r="C18" t="s">
         <v>3441</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -91641,8 +91693,11 @@
       <c r="C19" t="s">
         <v>3486</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -91652,8 +91707,11 @@
       <c r="C20" t="s">
         <v>3441</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -91663,8 +91721,11 @@
       <c r="C21" t="s">
         <v>3486</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -91674,8 +91735,11 @@
       <c r="C22" t="s">
         <v>3486</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -91685,8 +91749,11 @@
       <c r="C23" t="s">
         <v>3486</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -91696,8 +91763,11 @@
       <c r="C24" t="s">
         <v>3486</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -91707,8 +91777,11 @@
       <c r="C25" t="s">
         <v>3441</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -91718,8 +91791,11 @@
       <c r="C26" t="s">
         <v>3441</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -91729,8 +91805,11 @@
       <c r="C27" t="s">
         <v>3441</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -91740,8 +91819,11 @@
       <c r="C28" t="s">
         <v>3437</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -91751,8 +91833,11 @@
       <c r="C29" t="s">
         <v>3437</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -91762,8 +91847,11 @@
       <c r="C30" t="s">
         <v>3437</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -91773,8 +91861,11 @@
       <c r="C31" t="s">
         <v>3437</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -91784,8 +91875,11 @@
       <c r="C32" t="s">
         <v>3437</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -91795,8 +91889,11 @@
       <c r="C33" t="s">
         <v>3437</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -91806,8 +91903,11 @@
       <c r="C34" t="s">
         <v>3437</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -91817,8 +91917,12 @@
       <c r="C35" t="s">
         <v>3441</v>
       </c>
+      <c r="D35" s="2">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>